--- a/data/trans_dic/P23_7_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_7_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,52%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>11,33%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>11,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,81</t>
+          <t>2,61; 5,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,53</t>
+          <t>3,98; 7,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,23</t>
+          <t>4,11; 7,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,32</t>
+          <t>4,79; 9,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,93</t>
+          <t>9,02; 14,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,77</t>
+          <t>8,91; 14,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,08</t>
+          <t>5,38; 9,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,83</t>
+          <t>3,69; 6,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,17</t>
+          <t>6,31; 10,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,52</t>
+          <t>7,06; 12,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,35</t>
+          <t>9,15; 13,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,24</t>
+          <t>8,26; 12,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 7,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 6,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 8,16</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 10,35</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 13,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 13,0</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>10,8%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,02</t>
+          <t>4,32; 10,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,95</t>
+          <t>3,59; 10,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,64</t>
+          <t>3,09; 6,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 16,11</t>
+          <t>2,9; 6,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,24</t>
+          <t>7,3; 15,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,53</t>
+          <t>8,88; 17,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,03</t>
+          <t>4,87; 10,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 17,91</t>
+          <t>3,97; 7,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,99</t>
+          <t>3,57; 7,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,98</t>
+          <t>4,91; 9,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,05</t>
+          <t>6,77; 19,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,89</t>
+          <t>6,2; 14,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 9,28</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 7,95</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 6,18</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 7,27</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 14,96</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 14,53</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,79</t>
+          <t>2,97; 12,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 25,14</t>
+          <t>6,53; 24,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 18,44</t>
+          <t>2,79; 13,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,28; 35,53</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 12,53</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 13,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 13,02</t>
+          <t>4,19; 13,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,48; 13,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 12,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 15,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 9,5</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 15,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 12,19</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 10,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 16,96</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 10,94</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 22,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,34%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>11,33%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>6,08%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>11,34%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,65</t>
+          <t>4,06; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,5</t>
+          <t>5,12; 8,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,82</t>
+          <t>4,05; 6,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,59</t>
+          <t>4,94; 9,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,03</t>
+          <t>9,34; 13,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,78</t>
+          <t>9,79; 14,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,12</t>
+          <t>6,12; 9,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,88</t>
+          <t>4,5; 6,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,37</t>
+          <t>5,68; 8,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,19</t>
+          <t>7,01; 10,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,07</t>
+          <t>9,49; 13,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,98</t>
+          <t>8,48; 12,54</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 7,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 7,22</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 6,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 9,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 13,02</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 12,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66396</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>89967</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90863</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>110474</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26054</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26506</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>133378</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>89961</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>144990</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>170595</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26699</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24156</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>199773</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>179928</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>235853</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>281069</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>52753</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>50661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42760; 95567</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64560; 118898</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67491; 123482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77928; 157812</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20404; 32109</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20121; 33394</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>96011; 169768</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>66299; 120089</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113655; 185681</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>126558; 222310</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21571; 32927</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19472; 29563</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>159954; 250533</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>144762; 217327</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>198620; 280754</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>226463; 353990</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>45106; 61974</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>43235; 60028</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>86602</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>85620</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>61876</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61247</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9080</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100264</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75514</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70097</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98019</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7386</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>186866</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>161134</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>131973</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>159266</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15132</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15665</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58313; 141142</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49167; 142453</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42266; 90564</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40111; 89588</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5240; 11368</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6404; 12750</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>67584; 146901</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53595; 103170</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48945; 100419</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>67633; 129735</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4408; 12496</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4148; 9952</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>140523; 253911</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>122049; 216415</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>101659; 169318</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>120871; 200778</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10995; 20474</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12044; 20203</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26311</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50392</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26276</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50987</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31401</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30667</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>58311</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>81793</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>56944</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>87763</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12308; 50765</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26956; 102926</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11614; 54271</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17202; 142918</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17134; 55174</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17933; 55435</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16313; 51128</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19656; 63293</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>37473; 88889</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>54117; 137887</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>34238; 89984</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>48663; 185681</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>179308</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>225979</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>179015</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>222708</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35586</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>265642</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>196876</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>245754</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305390</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34086</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30740</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>444950</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>422855</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>424770</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>528098</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>67885</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>66326</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>138081; 234551</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>174338; 299404</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>138749; 220775</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>168852; 333298</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27829; 41240</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29173; 42872</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>218929; 329807</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>159701; 240859</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>203299; 294320</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>250665; 370137</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28544; 41037</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25662; 37966</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>380583; 530853</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>354884; 501654</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>363998; 489742</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>448755; 642154</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>58725; 77946</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>57539; 76094</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
